--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91760\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90514125-7264-4D0F-80DD-62FBCCC47AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F08EF-9E63-4455-AC79-0ED758DC35DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Annova 2-way" sheetId="7" r:id="rId1"/>
-    <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Q1" sheetId="8" r:id="rId3"/>
-    <sheet name="Q2" sheetId="9" r:id="rId4"/>
-    <sheet name="Annova 1-way" sheetId="3" r:id="rId5"/>
-    <sheet name="Q5" sheetId="11" r:id="rId6"/>
+    <sheet name="Annova 1-way" sheetId="3" r:id="rId1"/>
+    <sheet name="Annova 2-way" sheetId="7" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Q1" sheetId="8" r:id="rId4"/>
+    <sheet name="Q2" sheetId="9" r:id="rId5"/>
+    <sheet name="Q6" sheetId="11" r:id="rId6"/>
+    <sheet name="Q3" sheetId="12" r:id="rId7"/>
+    <sheet name="Q4" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Raw Data'!$B$1:$B$12187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Raw Data'!$B$1:$B$12187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>1)</t>
   </si>
@@ -222,13 +224,109 @@
   </si>
   <si>
     <t>Q5) Perform t-test on the dataset as discussed in class using t-test function in excel.</t>
+  </si>
+  <si>
+    <t>We use the sample mean (X-bar) as our estimate of the population mean u.</t>
+  </si>
+  <si>
+    <t>Question:-We wish to make a statement about the
+mean heart rate in all young adults. We
+randomly sample 25 young adults and record
+each person’s heart rate.</t>
+  </si>
+  <si>
+    <t>Random sample of n = 25 young adults.</t>
+  </si>
+  <si>
+    <t>Heart rate (beats per minute)</t>
+  </si>
+  <si>
+    <t>70, 74, 75, 78, 74, 64, 70, 78, 81, 73</t>
+  </si>
+  <si>
+    <t>82, 75, 71, 79, 73, 79, 85, 79, 71, 65</t>
+  </si>
+  <si>
+    <t>70, 69, 76, 77, 66</t>
+  </si>
+  <si>
+    <t>Example: Mean heart rate in young adults</t>
+  </si>
+  <si>
+    <t>1)Sample: the 25 young adults chosen for the
+study</t>
+  </si>
+  <si>
+    <t>So, From the above data mean=74.16 (Sample mean)</t>
+  </si>
+  <si>
+    <t>EXAMPLE 1: A health-care actuary has been investigating the cost of maintaining the</t>
+  </si>
+  <si>
+    <t>cancer patients within its plan. These people have typically been running up costs at the</t>
+  </si>
+  <si>
+    <t>rate of $1,240 per month. A sample of 15 cases for November (the first 15 for which</t>
+  </si>
+  <si>
+    <t>complete records were available) and an average cost of $1,080, with a standard</t>
+  </si>
+  <si>
+    <t>deviation of $180. Is there any evidence of a significant change?</t>
+  </si>
+  <si>
+    <t>The hypothesis statement is H0: μ = $1,240 versus H1: μ != $1,240.</t>
+  </si>
+  <si>
+    <t>The test statistic will be t = n^1/2 * x-u/s.</t>
+  </si>
+  <si>
+    <t>here from the ques the value of x is 1080, n is 15, u is 1240 and s is 180.</t>
+  </si>
+  <si>
+    <t>Level of significance a = 0.05.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ta/2 ; n-1= 0.05/2;14 so from the graph the value is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.145</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">so the ans would be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3.443</t>
+    </r>
+  </si>
+  <si>
+    <t>1) since 3.443 &gt; 2.145, the null hypothesis is rejected as a result of which The November cases are significantly different.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +373,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -290,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -432,11 +537,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -469,6 +589,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,25 +692,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -631,19 +762,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1724,6 +1855,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3CBDF2-75D4-4521-BBDE-23F943DF44CA}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1">
+        <v>140603</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2869.4489795918366</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2090217.0858843538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1">
+        <v>142073</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2899.4489795918366</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2090217.0858843538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>143543</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2929.4489795918366</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2090217.0858843538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>88200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.1098287014212996E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.979125750901922</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.0589280005422923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>300991260.367347</v>
+      </c>
+      <c r="C13" s="1">
+        <v>144</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2090217.0858843541</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>301079460.367347</v>
+      </c>
+      <c r="C15" s="2">
+        <v>146</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52635182-2181-49F7-87A4-4B58738D7B05}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -2155,7 +2494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
@@ -2220,7 +2559,7 @@
         <v>2736</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D51" si="0">C4+30</f>
+        <f t="shared" ref="D4:D49" si="0">C4+30</f>
         <v>2766</v>
       </c>
     </row>
@@ -2229,7 +2568,7 @@
         <v>4821</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C51" si="1">B5+30</f>
+        <f t="shared" ref="C5:C49" si="1">B5+30</f>
         <v>4851</v>
       </c>
       <c r="D5">
@@ -2835,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABC7EF-4AC3-4667-B558-46E9AA9C6528}">
   <dimension ref="A4:B8"/>
   <sheetViews>
@@ -2888,11 +3227,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDCFB12-AC4F-4BE2-9DD6-A0383255871A}">
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -3029,23 +3368,23 @@
       </c>
       <c r="C15" s="16" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3827</v>
+        <v>3521</v>
       </c>
       <c r="D15" s="16" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2292</v>
+        <v>808</v>
       </c>
       <c r="E15" s="16" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4904</v>
+        <v>0</v>
       </c>
       <c r="F15" s="16" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4943</v>
+        <v>2970</v>
       </c>
       <c r="G15" s="17">
         <f ca="1">AVERAGE(C15:F15)</f>
-        <v>3991.5</v>
+        <v>1824.75</v>
       </c>
       <c r="P15">
         <v>1060</v>
@@ -3057,23 +3396,23 @@
       </c>
       <c r="C16" s="16" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3827</v>
+        <v>4844</v>
       </c>
       <c r="D16" s="16" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4573</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="16" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4973</v>
+        <v>4307</v>
       </c>
       <c r="F16" s="16" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>808</v>
+        <v>1636</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" ref="G16:G25" ca="1" si="0">AVERAGE(C16:F16)</f>
-        <v>3545.25</v>
+        <v>2976.75</v>
       </c>
       <c r="P16">
         <v>4159</v>
@@ -3085,23 +3424,23 @@
       </c>
       <c r="C17" s="16" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1735</v>
+        <v>253</v>
       </c>
       <c r="D17" s="16" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3109</v>
+        <v>4913</v>
       </c>
       <c r="E17" s="16" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4504</v>
+        <v>1719</v>
       </c>
       <c r="F17" s="16" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4474</v>
+        <v>1705</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3455.5</v>
+        <v>2147.5</v>
       </c>
       <c r="P17">
         <v>1636</v>
@@ -3113,23 +3452,23 @@
       </c>
       <c r="C18" s="16" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2240</v>
+        <v>4412</v>
       </c>
       <c r="D18" s="16" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2581</v>
+        <v>3797</v>
       </c>
       <c r="E18" s="16" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3849</v>
+        <v>838</v>
       </c>
       <c r="F18" s="16" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4189</v>
+        <v>2706</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3214.75</v>
+        <v>2938.25</v>
       </c>
       <c r="P18">
         <v>3500</v>
@@ -3141,23 +3480,23 @@
       </c>
       <c r="C19" s="16" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3992</v>
+        <v>4307</v>
       </c>
       <c r="D19" s="16" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3995</v>
+        <v>3819</v>
       </c>
       <c r="E19" s="16" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4851</v>
+        <v>0</v>
       </c>
       <c r="F19" s="16" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>0</v>
+        <v>3374</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3209.5</v>
+        <v>2875</v>
       </c>
       <c r="P19">
         <v>4612</v>
@@ -3169,23 +3508,23 @@
       </c>
       <c r="C20" s="16" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>927</v>
+        <v>2308</v>
       </c>
       <c r="D20" s="16" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3819</v>
+        <v>4573</v>
       </c>
       <c r="E20" s="16" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4530</v>
+        <v>283</v>
       </c>
       <c r="F20" s="16" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>313</v>
+        <v>4914</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2397.25</v>
+        <v>3019.5</v>
       </c>
       <c r="P20">
         <v>2521</v>
@@ -3197,23 +3536,23 @@
       </c>
       <c r="C21" s="16" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1765</v>
+        <v>1090</v>
       </c>
       <c r="D21" s="16" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4472</v>
+        <v>4412</v>
       </c>
       <c r="E21" s="16" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>867</v>
+        <v>3109</v>
       </c>
       <c r="F21" s="16" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4219</v>
+        <v>3849</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2830.75</v>
+        <v>3115</v>
       </c>
       <c r="P21">
         <v>2368</v>
@@ -3225,23 +3564,23 @@
       </c>
       <c r="C22" s="16" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4189</v>
+        <v>3827</v>
       </c>
       <c r="D22" s="16" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4642</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="16" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3849</v>
+        <v>2753</v>
       </c>
       <c r="F22" s="16" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2428</v>
+        <v>3020</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3777</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -3250,23 +3589,23 @@
       </c>
       <c r="C23" s="16" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3827</v>
+        <v>4604</v>
       </c>
       <c r="D23" s="16" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1424</v>
+        <v>4672</v>
       </c>
       <c r="E23" s="16" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4022</v>
+        <v>2270</v>
       </c>
       <c r="F23" s="16" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2598.25</v>
+        <v>3446.5</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
@@ -3275,23 +3614,23 @@
       </c>
       <c r="C24" s="16" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2540</v>
+        <v>3857</v>
       </c>
       <c r="D24" s="16" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>0</v>
+        <v>4219</v>
       </c>
       <c r="E24" s="16" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>0</v>
+        <v>4874</v>
       </c>
       <c r="F24" s="16" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>253</v>
+        <v>2368</v>
       </c>
       <c r="G24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>698.25</v>
+        <v>3829.5</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
@@ -3300,23 +3639,23 @@
       </c>
       <c r="C25" s="16" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4472</v>
+        <v>2292</v>
       </c>
       <c r="D25" s="16" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="E25" s="16" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3551</v>
+        <v>4564</v>
       </c>
       <c r="F25" s="16" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4944</v>
+        <v>4612</v>
       </c>
       <c r="G25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3241.75</v>
+        <v>3279.25</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -3325,47 +3664,47 @@
       </c>
       <c r="C27" s="16" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3995</v>
+        <v>3109</v>
       </c>
       <c r="D27" s="16" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4604</v>
+        <v>4055</v>
       </c>
       <c r="E27" s="16" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2378</v>
+        <v>4534</v>
       </c>
       <c r="F27" s="16" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3521</v>
+        <v>2378</v>
       </c>
       <c r="G27" s="16" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2292</v>
+        <v>3819</v>
       </c>
       <c r="H27" s="16" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1509</v>
+        <v>0</v>
       </c>
       <c r="I27" s="16" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>927</v>
+        <v>868</v>
       </c>
       <c r="J27" s="16" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4943</v>
+        <v>602</v>
       </c>
       <c r="K27" s="16" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4307</v>
+        <v>2753</v>
       </c>
       <c r="L27" s="16" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4874</v>
+        <v>3374</v>
       </c>
       <c r="M27" s="17">
         <f ca="1">AVERAGE(C27:L27)</f>
-        <v>3335</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="P27">
         <v>2940</v>
@@ -3377,47 +3716,47 @@
       </c>
       <c r="C28" s="16" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4603</v>
+        <v>1060</v>
       </c>
       <c r="D28" s="16" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2706</v>
+        <v>0</v>
       </c>
       <c r="E28" s="16" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>897</v>
+        <v>3000</v>
       </c>
       <c r="F28" s="16" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>283</v>
+        <v>2368</v>
       </c>
       <c r="G28" s="16" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4444</v>
+        <v>2368</v>
       </c>
       <c r="H28" s="16" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4973</v>
+        <v>1424</v>
       </c>
       <c r="I28" s="16" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4442</v>
+        <v>3000</v>
       </c>
       <c r="J28" s="16" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4564</v>
+        <v>390</v>
       </c>
       <c r="K28" s="16" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>897</v>
+        <v>1418</v>
       </c>
       <c r="L28" s="16" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3530</v>
+        <v>2706</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" ref="M28:M32" ca="1" si="1">AVERAGE(C28:L28)</f>
-        <v>3133.9</v>
+        <v>1773.4</v>
       </c>
       <c r="P28">
         <v>1358</v>
@@ -3429,47 +3768,47 @@
       </c>
       <c r="C29" s="16" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3797</v>
+        <v>1679</v>
       </c>
       <c r="D29" s="16" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1454</v>
+        <v>2348</v>
       </c>
       <c r="E29" s="16" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2210</v>
+        <v>1454</v>
       </c>
       <c r="F29" s="16" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4530</v>
+        <v>2248</v>
       </c>
       <c r="G29" s="16" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4634</v>
+        <v>1418</v>
       </c>
       <c r="H29" s="16" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2278</v>
+        <v>3879</v>
       </c>
       <c r="I29" s="16" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1666</v>
+        <v>2240</v>
       </c>
       <c r="J29" s="16" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4052</v>
+        <v>4337</v>
       </c>
       <c r="K29" s="16" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4564</v>
+        <v>3164</v>
       </c>
       <c r="L29" s="16" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4337</v>
+        <v>1120</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>3352.2</v>
+        <v>2388.6999999999998</v>
       </c>
       <c r="P29">
         <v>3995</v>
@@ -3481,47 +3820,47 @@
       </c>
       <c r="C30" s="16" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4612</v>
+        <v>4844</v>
       </c>
       <c r="D30" s="16" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>0</v>
+        <v>3109</v>
       </c>
       <c r="E30" s="16" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1358</v>
+        <v>390</v>
       </c>
       <c r="F30" s="16" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4672</v>
+        <v>4913</v>
       </c>
       <c r="G30" s="16" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4189</v>
+        <v>2970</v>
       </c>
       <c r="H30" s="16" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4943</v>
+        <v>1735</v>
       </c>
       <c r="I30" s="16" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3344</v>
+        <v>1388</v>
       </c>
       <c r="J30" s="16" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>313</v>
+        <v>4573</v>
       </c>
       <c r="K30" s="16" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1735</v>
+        <v>2240</v>
       </c>
       <c r="L30" s="16" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4307</v>
+        <v>390</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>2947.3</v>
+        <v>2655.2</v>
       </c>
       <c r="P30">
         <v>3797</v>
@@ -3533,47 +3872,47 @@
       </c>
       <c r="C31" s="16" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1749</v>
+        <v>4530</v>
       </c>
       <c r="D31" s="16" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2398</v>
+        <v>3374</v>
       </c>
       <c r="E31" s="16" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2408</v>
+        <v>3560</v>
       </c>
       <c r="F31" s="16" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1569</v>
+        <v>4504</v>
       </c>
       <c r="G31" s="16" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2262</v>
+        <v>4307</v>
       </c>
       <c r="H31" s="16" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1765</v>
+        <v>4672</v>
       </c>
       <c r="I31" s="16" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4851</v>
+        <v>4874</v>
       </c>
       <c r="J31" s="16" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2292</v>
+        <v>867</v>
       </c>
       <c r="K31" s="16" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1765</v>
+        <v>360</v>
       </c>
       <c r="L31" s="16" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4913</v>
+        <v>4672</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>2597.1999999999998</v>
+        <v>3572</v>
       </c>
       <c r="P31">
         <v>4444</v>
@@ -3585,47 +3924,47 @@
       </c>
       <c r="C32" s="16" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4189</v>
+        <v>3995</v>
       </c>
       <c r="D32" s="16" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2540</v>
+        <v>4944</v>
       </c>
       <c r="E32" s="16" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2308</v>
+        <v>3992</v>
       </c>
       <c r="F32" s="16" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1388</v>
+        <v>1719</v>
       </c>
       <c r="G32" s="16" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2706</v>
+        <v>3551</v>
       </c>
       <c r="H32" s="16" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2753</v>
+        <v>4604</v>
       </c>
       <c r="I32" s="16" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3374</v>
+        <v>1120</v>
       </c>
       <c r="J32" s="16" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3521</v>
+        <v>4444</v>
       </c>
       <c r="K32" s="16" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4277</v>
+        <v>3134</v>
       </c>
       <c r="L32" s="16" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1649</v>
+        <v>1719</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>2870.5</v>
+        <v>3322.2</v>
       </c>
       <c r="P32">
         <v>2210</v>
@@ -3637,47 +3976,47 @@
       </c>
       <c r="C33" s="16" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4672</v>
+        <v>1090</v>
       </c>
       <c r="D33" s="16" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4337</v>
+        <v>253</v>
       </c>
       <c r="E33" s="16" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3344</v>
+        <v>1424</v>
       </c>
       <c r="F33" s="16" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>897</v>
+        <v>4612</v>
       </c>
       <c r="G33" s="16" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>283</v>
+        <v>4307</v>
       </c>
       <c r="H33" s="16" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2970</v>
+        <v>1509</v>
       </c>
       <c r="I33" s="16" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4943</v>
+        <v>2240</v>
       </c>
       <c r="J33" s="16" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4474</v>
+        <v>4973</v>
       </c>
       <c r="K33" s="16" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3491</v>
+        <v>2766</v>
       </c>
       <c r="L33" s="16" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2262</v>
+        <v>1696</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" ref="M33:M37" ca="1" si="2">AVERAGE(C33:L33)</f>
-        <v>3167.3</v>
+        <v>2487</v>
       </c>
       <c r="P33">
         <v>4844</v>
@@ -3689,47 +4028,47 @@
       </c>
       <c r="C34" s="16" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3551</v>
+        <v>2540</v>
       </c>
       <c r="D34" s="16" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>868</v>
+        <v>4219</v>
       </c>
       <c r="E34" s="16" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4642</v>
+        <v>0</v>
       </c>
       <c r="F34" s="16" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2970</v>
+        <v>4904</v>
       </c>
       <c r="G34" s="16" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4821</v>
+        <v>0</v>
       </c>
       <c r="H34" s="16" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1177</v>
+        <v>3104</v>
       </c>
       <c r="I34" s="16" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2540</v>
+        <v>3104</v>
       </c>
       <c r="J34" s="16" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3521</v>
+        <v>4504</v>
       </c>
       <c r="K34" s="16" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3109</v>
+        <v>2551</v>
       </c>
       <c r="L34" s="16" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>313</v>
+        <v>1705</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>2751.2</v>
+        <v>2663.1</v>
       </c>
       <c r="P34">
         <v>2753</v>
@@ -3741,47 +4080,47 @@
       </c>
       <c r="C35" s="16" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3164</v>
+        <v>4672</v>
       </c>
       <c r="D35" s="16" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2378</v>
+        <v>4612</v>
       </c>
       <c r="E35" s="16" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2766</v>
+        <v>2540</v>
       </c>
       <c r="F35" s="16" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1120</v>
+        <v>4412</v>
       </c>
       <c r="G35" s="16" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2210</v>
+        <v>3169</v>
       </c>
       <c r="H35" s="16" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1636</v>
+        <v>927</v>
       </c>
       <c r="I35" s="16" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3134</v>
+        <v>3104</v>
       </c>
       <c r="J35" s="16" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="K35" s="16" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>1765</v>
+        <v>253</v>
       </c>
       <c r="L35" s="16" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4973</v>
+        <v>542</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>2485.1</v>
+        <v>2423.1</v>
       </c>
       <c r="P35">
         <v>3819</v>
@@ -3793,47 +4132,47 @@
       </c>
       <c r="C36" s="16" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2990</v>
+        <v>2428</v>
       </c>
       <c r="D36" s="16" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>572</v>
+        <v>3164</v>
       </c>
       <c r="E36" s="16" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4189</v>
+        <v>1177</v>
       </c>
       <c r="F36" s="16" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4634</v>
+        <v>2510</v>
       </c>
       <c r="G36" s="16" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>390</v>
+        <v>2292</v>
       </c>
       <c r="H36" s="16" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2398</v>
+        <v>4412</v>
       </c>
       <c r="I36" s="16" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>0</v>
+        <v>3560</v>
       </c>
       <c r="J36" s="16" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4307</v>
+        <v>2270</v>
       </c>
       <c r="K36" s="16" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2736</v>
+        <v>2368</v>
       </c>
       <c r="L36" s="16" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4913</v>
+        <v>1388</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>2712.9</v>
+        <v>2556.9</v>
       </c>
       <c r="P36">
         <v>4412</v>
@@ -3845,47 +4184,47 @@
       </c>
       <c r="C37" s="16" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4974</v>
+        <v>2521</v>
       </c>
       <c r="D37" s="16" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2398</v>
+        <v>2581</v>
       </c>
       <c r="E37" s="16" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2278</v>
+        <v>4504</v>
       </c>
       <c r="F37" s="16" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>3169</v>
+        <v>2210</v>
       </c>
       <c r="G37" s="16" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2581</v>
+        <v>3530</v>
       </c>
       <c r="H37" s="16" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4672</v>
+        <v>3551</v>
       </c>
       <c r="I37" s="16" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2368</v>
+        <v>2348</v>
       </c>
       <c r="J37" s="16" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4307</v>
+        <v>2292</v>
       </c>
       <c r="K37" s="16" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>4672</v>
+        <v>2783</v>
       </c>
       <c r="L37" s="16" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDEX($P$1:$P$150,RANDBETWEEN(1,145))</f>
-        <v>2240</v>
+        <v>1735</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>3365.9</v>
+        <v>2805.5</v>
       </c>
       <c r="P37">
         <v>1177</v>
@@ -3918,7 +4257,7 @@
       </c>
       <c r="C40">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <f ca="1"/>
@@ -3950,11 +4289,11 @@
       </c>
       <c r="C42">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>3104</v>
@@ -3970,7 +4309,7 @@
       </c>
       <c r="D43">
         <f ca="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P43">
         <v>2990</v>
@@ -3982,7 +4321,7 @@
       </c>
       <c r="C44">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <f ca="1"/>
@@ -3998,11 +4337,11 @@
       </c>
       <c r="C45">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <f ca="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>2262</v>
@@ -4014,11 +4353,11 @@
       </c>
       <c r="C46">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>4913</v>
@@ -4641,220 +4980,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3CBDF2-75D4-4521-BBDE-23F943DF44CA}">
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1">
-        <v>140603</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2869.4489795918366</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2090217.0858843538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1">
-        <v>142073</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2899.4489795918366</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2090217.0858843538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2">
-        <v>143543</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2929.4489795918366</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2090217.0858843538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>88200</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44100</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.1098287014212996E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.979125750901922</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3.0589280005422923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>300991260.367347</v>
-      </c>
-      <c r="C13" s="1">
-        <v>144</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2090217.0858843541</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2">
-        <v>301079460.367347</v>
-      </c>
-      <c r="C15" s="2">
-        <v>146</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093BF411-593E-40B9-8F51-5B81F87C8E53}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4878,4 +5009,183 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C7118-D5DF-406B-84AE-0A45F0BE393A}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EB597F-E79C-47F5-9D1C-A626AD9CDA7C}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="73.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>